--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEEED3-E316-4E16-83E9-9F228F4FD0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E451E2-8D16-4F13-94FE-3A58429BEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>TÍTULO</t>
   </si>
@@ -58,9 +58,6 @@
     <t>https://arxiv.org/abs/2201.02994</t>
   </si>
   <si>
-    <t>mel spectrum</t>
-  </si>
-  <si>
     <t>https://medium.com/analytics-vidhya/understanding-the-mel-spectrogram-fca2afa2ce53</t>
   </si>
   <si>
@@ -100,11 +97,6 @@
     <t>https://arxiv.org/abs/1303.1761</t>
   </si>
   <si>
-    <t>DEEP: Uma arquitetura para reconhecer emoção
-com base no espectro sonoro da voz de falantes da
-língua portuguesa</t>
-  </si>
-  <si>
     <t>https://bdm.unb.br/bitstream/10483/27583/1/2020_GabrielCampos_LucasMoutinho_tcc.pdf</t>
   </si>
   <si>
@@ -316,6 +308,15 @@
   </si>
   <si>
     <t>https://d-nb.info/1232071765/34</t>
+  </si>
+  <si>
+    <t>DEEP: Uma arquitetura para reconhecer emoção com base no espectro sonoro da voz de falantes da língua portuguesa</t>
+  </si>
+  <si>
+    <t>QNT</t>
+  </si>
+  <si>
+    <t>MEL Spectrogram</t>
   </si>
 </sst>
 </file>
@@ -394,7 +395,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,18 +405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFABAB"/>
-        <bgColor rgb="FFB4C7DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFDEE6EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
         <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
@@ -461,8 +450,32 @@
         <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -485,27 +498,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,83 +511,81 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,641 +970,1523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="115.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="225.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="225.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="25" t="s">
+    </row>
+    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+    </row>
+    <row r="25" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+    </row>
+    <row r="29" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+    </row>
+    <row r="30" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+    </row>
+    <row r="31" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+    </row>
+    <row r="34" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+    </row>
+    <row r="37" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{E40C4390-7296-4C5B-BD82-0F236C4D742B}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{1DD95D0A-6152-49D6-A756-0DB9412D5405}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{867CA0B3-4B1A-4C01-BDA7-B0E2C06BCFD7}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{7501155C-F0DC-4552-8A3B-A9563260E1CB}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{6CE9A334-3486-4EEC-8CD5-782135740948}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{49240304-6865-4382-B4A0-BCEE515419CC}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{F1F927D5-AEE1-425A-95EB-76C8AB3C0A45}"/>
+    <hyperlink ref="C21" r:id="rId8" xr:uid="{EFCA955B-F5FE-4DD5-8CFB-7DA2AEE82552}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{9CFB6918-5F84-44D0-8E9F-51F99EE83EBA}"/>
+    <hyperlink ref="C24" r:id="rId10" xr:uid="{D0CB64E0-A98A-4867-9471-7F7178703CC0}"/>
+    <hyperlink ref="C25" r:id="rId11" xr:uid="{4C51A58E-4023-42F1-B550-BDABE5B286E1}"/>
+    <hyperlink ref="C27" r:id="rId12" xr:uid="{DD59B53D-B1EA-4CF5-8118-1D113EA67F7F}"/>
+    <hyperlink ref="C28" r:id="rId13" xr:uid="{6AAD096F-14E5-4D25-866F-6B3361DC4FFB}"/>
+    <hyperlink ref="C29" r:id="rId14" xr:uid="{5E00CEAA-F23F-4F50-A3AF-DF89669001CD}"/>
+    <hyperlink ref="C30" r:id="rId15" xr:uid="{A750F2F3-A937-4BF4-B193-98082E61ED68}"/>
+    <hyperlink ref="C31" r:id="rId16" xr:uid="{391FF97C-9F57-4CE2-9818-85AF6B8741B8}"/>
+    <hyperlink ref="C32" r:id="rId17" xr:uid="{284B5B6F-2A5F-47F6-A6BC-9A3279DD916D}"/>
+    <hyperlink ref="C33" r:id="rId18" xr:uid="{D99B56E0-5A87-40CA-BC02-A6A4F7914C6D}"/>
+    <hyperlink ref="C34" r:id="rId19" xr:uid="{6C431590-5BB5-4B93-9A01-4ACF2F46D1EF}"/>
+    <hyperlink ref="C35" r:id="rId20" xr:uid="{D28B7460-C21A-4106-8505-D389738F981B}"/>
+    <hyperlink ref="C36" r:id="rId21" xr:uid="{043755E4-97E3-4962-B8FA-133B8B006DE5}"/>
+    <hyperlink ref="C37" r:id="rId22" xr:uid="{B74FF51A-76D8-48D9-92E6-6CEC0A201CD9}"/>
+    <hyperlink ref="C38" r:id="rId23" xr:uid="{FD8307B5-F2A3-4380-94E0-778E43294447}"/>
+    <hyperlink ref="C39" r:id="rId24" xr:uid="{25ADCA98-97F5-4217-B618-B76E6DAF36EE}"/>
+    <hyperlink ref="C18" r:id="rId25" xr:uid="{E4C780B3-83A5-4092-B981-8CD5F31B72A1}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{8B7BFFBB-7A4A-4127-9940-4693F7B39F89}"/>
+  </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.31527777777777799" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000#interna&amp;1#</oddHeader>
   </headerFooter>
@@ -1619,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,141 +2509,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="C9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="B10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
-        <v>41</v>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E451E2-8D16-4F13-94FE-3A58429BEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006D802-6D24-4BF4-8473-BD96482D0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refs" sheetId="1" r:id="rId1"/>
@@ -323,16 +323,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -361,27 +353,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -391,6 +362,28 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -501,61 +494,62 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,30 +557,27 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -970,45 +961,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="115.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="225.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="115.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="225.6640625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3"/>
@@ -1033,20 +1024,20 @@
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5"/>
@@ -1071,20 +1062,20 @@
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7"/>
@@ -1109,20 +1100,20 @@
       <c r="W7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9"/>
@@ -1146,12 +1137,12 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D10"/>
@@ -1175,12 +1166,12 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D11"/>
@@ -1204,12 +1195,12 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D12"/>
@@ -1233,12 +1224,12 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D13"/>
@@ -1262,12 +1253,12 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D14"/>
@@ -1291,12 +1282,12 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D15"/>
@@ -1320,12 +1311,12 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D16"/>
@@ -1349,12 +1340,12 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D17"/>
@@ -1378,12 +1369,12 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D18"/>
@@ -1407,12 +1398,12 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D19"/>
@@ -1436,12 +1427,12 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D20"/>
@@ -1465,12 +1456,12 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D21"/>
@@ -1494,12 +1485,12 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="30" t="s">
         <v>76</v>
       </c>
       <c r="D22"/>
@@ -1523,12 +1514,12 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D23"/>
@@ -1552,12 +1543,12 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D24"/>
@@ -1581,12 +1572,12 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D25"/>
@@ -1610,12 +1601,12 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D26"/>
@@ -1639,12 +1630,12 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D27"/>
@@ -1668,12 +1659,12 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D28"/>
@@ -1697,12 +1688,12 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D29"/>
@@ -1726,12 +1717,12 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D30"/>
@@ -1755,12 +1746,12 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D31"/>
@@ -1784,12 +1775,12 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D32"/>
@@ -1813,12 +1804,12 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D33"/>
@@ -1842,12 +1833,12 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D34"/>
@@ -1871,12 +1862,12 @@
       <c r="V34"/>
       <c r="W34"/>
     </row>
-    <row r="35" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="29" t="s">
         <v>89</v>
       </c>
       <c r="D35"/>
@@ -1900,12 +1891,12 @@
       <c r="V35"/>
       <c r="W35"/>
     </row>
-    <row r="36" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="30" t="s">
         <v>90</v>
       </c>
       <c r="D36"/>
@@ -1929,12 +1920,12 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="29" t="s">
         <v>91</v>
       </c>
       <c r="D37"/>
@@ -1958,12 +1949,12 @@
       <c r="V37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D38"/>
@@ -1987,12 +1978,12 @@
       <c r="V38"/>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D39"/>
@@ -2017,14 +2008,14 @@
       <c r="W39"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -2047,14 +2038,14 @@
       <c r="W41"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
@@ -2077,14 +2068,14 @@
       <c r="W43"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
@@ -2107,14 +2098,14 @@
       <c r="W45"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -2137,14 +2128,14 @@
       <c r="W47"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -2167,294 +2158,264 @@
       <c r="W49"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2484,9 +2445,10 @@
     <hyperlink ref="C39" r:id="rId24" xr:uid="{25ADCA98-97F5-4217-B618-B76E6DAF36EE}"/>
     <hyperlink ref="C18" r:id="rId25" xr:uid="{E4C780B3-83A5-4092-B981-8CD5F31B72A1}"/>
     <hyperlink ref="C22" r:id="rId26" xr:uid="{8B7BFFBB-7A4A-4127-9940-4693F7B39F89}"/>
+    <hyperlink ref="C2" r:id="rId27" xr:uid="{C84C28CE-6690-4ED9-B0D6-4945D350CA64}"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.31527777777777799" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000#interna&amp;1#</oddHeader>
   </headerFooter>
@@ -2498,7 +2460,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,98 +2471,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -2611,38 +2573,38 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
         <v>39</v>
       </c>
     </row>

--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006D802-6D24-4BF4-8473-BD96482D0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83617C-8C6A-455B-B036-DA1DCC9B2356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>TÍTULO</t>
   </si>
@@ -313,10 +313,13 @@
     <t>DEEP: Uma arquitetura para reconhecer emoção com base no espectro sonoro da voz de falantes da língua portuguesa</t>
   </si>
   <si>
-    <t>QNT</t>
-  </si>
-  <si>
     <t>MEL Spectrogram</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>#CIT</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -516,9 +519,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +578,21 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -961,48 +976,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="115.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="225.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="115.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="31">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="32">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -1022,25 +1046,31 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="31">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -1060,25 +1090,27 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -1098,25 +1130,27 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -1136,16 +1170,17 @@
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
-    </row>
-    <row r="10" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -1165,16 +1200,17 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
-    </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -1194,16 +1230,17 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
-    </row>
-    <row r="12" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -1223,16 +1260,17 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
-    </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -1252,16 +1290,17 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
-    </row>
-    <row r="14" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -1281,16 +1320,17 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
-    </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -1310,16 +1350,17 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
-    </row>
-    <row r="16" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -1339,16 +1380,17 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -1368,16 +1410,17 @@
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -1397,16 +1440,17 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -1426,16 +1470,17 @@
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -1455,16 +1500,17 @@
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -1484,16 +1530,17 @@
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
-    </row>
-    <row r="22" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -1513,16 +1560,17 @@
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
-    </row>
-    <row r="23" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
@@ -1542,16 +1590,17 @@
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-    </row>
-    <row r="24" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -1571,16 +1620,17 @@
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
-    </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -1600,16 +1650,17 @@
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
-    </row>
-    <row r="26" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -1629,16 +1680,17 @@
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-    </row>
-    <row r="27" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -1658,16 +1710,17 @@
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
-    </row>
-    <row r="28" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="30" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -1687,16 +1740,17 @@
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
-    </row>
-    <row r="29" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -1716,16 +1770,17 @@
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
-    </row>
-    <row r="30" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="30" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -1745,16 +1800,17 @@
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
-    </row>
-    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
@@ -1774,16 +1830,17 @@
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
-    </row>
-    <row r="32" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="30" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -1803,16 +1860,17 @@
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
-    </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -1832,16 +1890,17 @@
       <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
-    </row>
-    <row r="34" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="30" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
@@ -1861,16 +1920,17 @@
       <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
-    </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="29" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -1890,16 +1950,17 @@
       <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
-    </row>
-    <row r="36" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -1919,16 +1980,17 @@
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="29" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -1948,16 +2010,17 @@
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
-    </row>
-    <row r="38" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -1977,16 +2040,17 @@
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
-    </row>
-    <row r="39" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -2006,17 +2070,19 @@
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="4"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
@@ -2036,17 +2102,19 @@
       <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="4"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -2066,17 +2134,19 @@
       <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="4"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
@@ -2096,17 +2166,19 @@
       <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="4"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
@@ -2126,17 +2198,19 @@
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
@@ -2156,296 +2230,349 @@
       <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X49"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{E40C4390-7296-4C5B-BD82-0F236C4D742B}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{1DD95D0A-6152-49D6-A756-0DB9412D5405}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{867CA0B3-4B1A-4C01-BDA7-B0E2C06BCFD7}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{7501155C-F0DC-4552-8A3B-A9563260E1CB}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{6CE9A334-3486-4EEC-8CD5-782135740948}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{49240304-6865-4382-B4A0-BCEE515419CC}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{F1F927D5-AEE1-425A-95EB-76C8AB3C0A45}"/>
-    <hyperlink ref="C21" r:id="rId8" xr:uid="{EFCA955B-F5FE-4DD5-8CFB-7DA2AEE82552}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{9CFB6918-5F84-44D0-8E9F-51F99EE83EBA}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{D0CB64E0-A98A-4867-9471-7F7178703CC0}"/>
-    <hyperlink ref="C25" r:id="rId11" xr:uid="{4C51A58E-4023-42F1-B550-BDABE5B286E1}"/>
-    <hyperlink ref="C27" r:id="rId12" xr:uid="{DD59B53D-B1EA-4CF5-8118-1D113EA67F7F}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{6AAD096F-14E5-4D25-866F-6B3361DC4FFB}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{5E00CEAA-F23F-4F50-A3AF-DF89669001CD}"/>
-    <hyperlink ref="C30" r:id="rId15" xr:uid="{A750F2F3-A937-4BF4-B193-98082E61ED68}"/>
-    <hyperlink ref="C31" r:id="rId16" xr:uid="{391FF97C-9F57-4CE2-9818-85AF6B8741B8}"/>
-    <hyperlink ref="C32" r:id="rId17" xr:uid="{284B5B6F-2A5F-47F6-A6BC-9A3279DD916D}"/>
-    <hyperlink ref="C33" r:id="rId18" xr:uid="{D99B56E0-5A87-40CA-BC02-A6A4F7914C6D}"/>
-    <hyperlink ref="C34" r:id="rId19" xr:uid="{6C431590-5BB5-4B93-9A01-4ACF2F46D1EF}"/>
-    <hyperlink ref="C35" r:id="rId20" xr:uid="{D28B7460-C21A-4106-8505-D389738F981B}"/>
-    <hyperlink ref="C36" r:id="rId21" xr:uid="{043755E4-97E3-4962-B8FA-133B8B006DE5}"/>
-    <hyperlink ref="C37" r:id="rId22" xr:uid="{B74FF51A-76D8-48D9-92E6-6CEC0A201CD9}"/>
-    <hyperlink ref="C38" r:id="rId23" xr:uid="{FD8307B5-F2A3-4380-94E0-778E43294447}"/>
-    <hyperlink ref="C39" r:id="rId24" xr:uid="{25ADCA98-97F5-4217-B618-B76E6DAF36EE}"/>
-    <hyperlink ref="C18" r:id="rId25" xr:uid="{E4C780B3-83A5-4092-B981-8CD5F31B72A1}"/>
-    <hyperlink ref="C22" r:id="rId26" xr:uid="{8B7BFFBB-7A4A-4127-9940-4693F7B39F89}"/>
-    <hyperlink ref="C2" r:id="rId27" xr:uid="{C84C28CE-6690-4ED9-B0D6-4945D350CA64}"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{E40C4390-7296-4C5B-BD82-0F236C4D742B}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{1DD95D0A-6152-49D6-A756-0DB9412D5405}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{867CA0B3-4B1A-4C01-BDA7-B0E2C06BCFD7}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{7501155C-F0DC-4552-8A3B-A9563260E1CB}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{6CE9A334-3486-4EEC-8CD5-782135740948}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{49240304-6865-4382-B4A0-BCEE515419CC}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{F1F927D5-AEE1-425A-95EB-76C8AB3C0A45}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{EFCA955B-F5FE-4DD5-8CFB-7DA2AEE82552}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{9CFB6918-5F84-44D0-8E9F-51F99EE83EBA}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{D0CB64E0-A98A-4867-9471-7F7178703CC0}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{4C51A58E-4023-42F1-B550-BDABE5B286E1}"/>
+    <hyperlink ref="D27" r:id="rId12" xr:uid="{DD59B53D-B1EA-4CF5-8118-1D113EA67F7F}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{6AAD096F-14E5-4D25-866F-6B3361DC4FFB}"/>
+    <hyperlink ref="D29" r:id="rId14" xr:uid="{5E00CEAA-F23F-4F50-A3AF-DF89669001CD}"/>
+    <hyperlink ref="D30" r:id="rId15" xr:uid="{A750F2F3-A937-4BF4-B193-98082E61ED68}"/>
+    <hyperlink ref="D31" r:id="rId16" xr:uid="{391FF97C-9F57-4CE2-9818-85AF6B8741B8}"/>
+    <hyperlink ref="D32" r:id="rId17" xr:uid="{284B5B6F-2A5F-47F6-A6BC-9A3279DD916D}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{D99B56E0-5A87-40CA-BC02-A6A4F7914C6D}"/>
+    <hyperlink ref="D34" r:id="rId19" xr:uid="{6C431590-5BB5-4B93-9A01-4ACF2F46D1EF}"/>
+    <hyperlink ref="D35" r:id="rId20" xr:uid="{D28B7460-C21A-4106-8505-D389738F981B}"/>
+    <hyperlink ref="D36" r:id="rId21" xr:uid="{043755E4-97E3-4962-B8FA-133B8B006DE5}"/>
+    <hyperlink ref="D37" r:id="rId22" xr:uid="{B74FF51A-76D8-48D9-92E6-6CEC0A201CD9}"/>
+    <hyperlink ref="D38" r:id="rId23" xr:uid="{FD8307B5-F2A3-4380-94E0-778E43294447}"/>
+    <hyperlink ref="D39" r:id="rId24" xr:uid="{25ADCA98-97F5-4217-B618-B76E6DAF36EE}"/>
+    <hyperlink ref="D18" r:id="rId25" xr:uid="{E4C780B3-83A5-4092-B981-8CD5F31B72A1}"/>
+    <hyperlink ref="D22" r:id="rId26" xr:uid="{8B7BFFBB-7A4A-4127-9940-4693F7B39F89}"/>
+    <hyperlink ref="D2" r:id="rId27" xr:uid="{C84C28CE-6690-4ED9-B0D6-4945D350CA64}"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.31527777777777799" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
@@ -2459,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2471,140 +2598,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
     </row>

--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83617C-8C6A-455B-B036-DA1DCC9B2356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB13875-B1F9-41E2-9854-5C2D97990D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6276" yWindow="804" windowWidth="13800" windowHeight="11052" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refs" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,7 @@
     <col min="1" max="1" width="115.88671875" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="223.6640625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">

--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB13875-B1F9-41E2-9854-5C2D97990D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A166827-0040-416E-8DB7-130F456E1D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6276" yWindow="804" windowWidth="13800" windowHeight="11052" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="refs" sheetId="1" r:id="rId1"/>
@@ -578,20 +578,20 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -978,15 +978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="115.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="223.6640625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1008,10 +1008,8 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31">
-        <v>2022</v>
-      </c>
-      <c r="C2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
@@ -1020,10 +1018,8 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32">
-        <v>2022</v>
-      </c>
-      <c r="C3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1052,12 +1048,8 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31">
-        <v>2022</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1066,8 +1058,8 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1096,8 +1088,8 @@
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1098,8 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1136,8 +1128,8 @@
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1138,8 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1176,8 +1168,12 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="30">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="30">
+        <v>39</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1206,8 +1202,8 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="28" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1232,12 @@
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="30">
+        <v>2013</v>
+      </c>
+      <c r="C12" s="30">
+        <v>35</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1266,8 +1266,8 @@
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1296,12 @@
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="30">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="30">
+        <v>115</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1330,8 @@
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
@@ -1356,8 +1360,12 @@
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="30">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="30">
+        <v>47</v>
+      </c>
       <c r="D16" s="29" t="s">
         <v>29</v>
       </c>
@@ -1386,8 +1394,12 @@
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="31">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="31">
+        <v>16</v>
+      </c>
       <c r="D17" s="28" t="s">
         <v>31</v>
       </c>
@@ -1416,8 +1428,12 @@
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="30">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="30">
+        <v>204</v>
+      </c>
       <c r="D18" s="29" t="s">
         <v>33</v>
       </c>
@@ -1446,8 +1462,12 @@
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="31">
+        <v>2022</v>
+      </c>
+      <c r="C19" s="31">
+        <v>8</v>
+      </c>
       <c r="D19" s="28" t="s">
         <v>73</v>
       </c>
@@ -1476,8 +1496,8 @@
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="29" t="s">
         <v>74</v>
       </c>
@@ -1506,8 +1526,8 @@
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="28" t="s">
         <v>75</v>
       </c>
@@ -1536,8 +1556,8 @@
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="29" t="s">
         <v>76</v>
       </c>
@@ -1566,8 +1586,12 @@
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="31">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="31">
+        <v>13</v>
+      </c>
       <c r="D23" s="28" t="s">
         <v>77</v>
       </c>
@@ -1596,8 +1620,8 @@
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="29" t="s">
         <v>78</v>
       </c>
@@ -1626,8 +1650,8 @@
       <c r="A25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="28" t="s">
         <v>79</v>
       </c>
@@ -1656,8 +1680,8 @@
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="29" t="s">
         <v>80</v>
       </c>
@@ -1686,8 +1710,8 @@
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="28" t="s">
         <v>81</v>
       </c>
@@ -1716,8 +1740,8 @@
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="29" t="s">
         <v>82</v>
       </c>
@@ -1746,8 +1770,12 @@
       <c r="A29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="31">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="31">
+        <v>24</v>
+      </c>
       <c r="D29" s="28" t="s">
         <v>83</v>
       </c>
@@ -1776,8 +1804,8 @@
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="29" t="s">
         <v>84</v>
       </c>
@@ -1806,8 +1834,8 @@
       <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="28" t="s">
         <v>85</v>
       </c>
@@ -1836,8 +1864,8 @@
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="29" t="s">
         <v>86</v>
       </c>
@@ -1866,8 +1894,12 @@
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="31">
+        <v>2021</v>
+      </c>
+      <c r="C33" s="31">
+        <v>76</v>
+      </c>
       <c r="D33" s="28" t="s">
         <v>87</v>
       </c>
@@ -1896,8 +1928,8 @@
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="29" t="s">
         <v>88</v>
       </c>
@@ -1926,8 +1958,8 @@
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="28" t="s">
         <v>89</v>
       </c>
@@ -1956,8 +1988,8 @@
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="29" t="s">
         <v>90</v>
       </c>
@@ -1986,8 +2018,8 @@
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="28" t="s">
         <v>91</v>
       </c>
@@ -2016,8 +2048,8 @@
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="29" t="s">
         <v>92</v>
       </c>
@@ -2046,8 +2078,8 @@
       <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="28" t="s">
         <v>93</v>
       </c>
@@ -2074,14 +2106,14 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="4"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -2106,14 +2138,14 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="4"/>
       <c r="E43"/>
       <c r="F43"/>
@@ -2138,14 +2170,14 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="4"/>
       <c r="E45"/>
       <c r="F45"/>
@@ -2170,14 +2202,14 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="4"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -2202,14 +2234,14 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="4"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -2234,314 +2266,314 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="4"/>
     </row>
   </sheetData>
@@ -2598,14 +2630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2616,8 +2648,8 @@
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">

--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4119597\OneDrive - Banco do Brasil S.A\pessoal\ppgi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A166827-0040-416E-8DB7-130F456E1D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1F41E-C076-4ED6-8781-5CEB12F34462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>TÍTULO</t>
   </si>
@@ -320,13 +320,37 @@
   </si>
   <si>
     <t>#CIT</t>
+  </si>
+  <si>
+    <t>Emotion recognition from speech: a review</t>
+  </si>
+  <si>
+    <t>https://www.sci.brooklyn.cuny.edu/~levitan/nlp-psych/papers/koolagudi12.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8805181</t>
+  </si>
+  <si>
+    <t>Speech Emotion Recognition Using Deep Learning Techniques: A Review</t>
+  </si>
+  <si>
+    <t>Emotion Recognition and Detection Methods: A Comprehensive Survey</t>
+  </si>
+  <si>
+    <t>https://iecscience.org/uploads/jpapers/202003/dnQToaqdF8IRjhE62pfIovCkDJ2jXAcZdK6KHRzM.pdf</t>
+  </si>
+  <si>
+    <t>https://flab.k.hosei.ac.jp/pukiwiki/index.php?plugin=attach&amp;pcmd=open&amp;file=1-s2.0-S0957417415005229-main.pdf&amp;refer=Hirano</t>
+  </si>
+  <si>
+    <t>New approach in quantification of emotional intensity from the speech signal: emotional temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -385,6 +409,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -499,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -592,6 +623,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -978,24 +1026,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="115.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.6640625" style="25" customWidth="1"/>
     <col min="3" max="3" width="5.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="223.6640625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>97</v>
@@ -1005,20 +1053,20 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1045,20 +1093,20 @@
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1085,20 +1133,20 @@
       <c r="X5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1125,20 +1173,20 @@
       <c r="X7"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -1165,11 +1213,11 @@
       <c r="X9"/>
     </row>
     <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="30">
-        <v>2018</v>
       </c>
       <c r="C10" s="30">
         <v>39</v>
@@ -1199,10 +1247,10 @@
       <c r="X10"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="28" t="s">
         <v>20</v>
@@ -1229,11 +1277,11 @@
       <c r="X11"/>
     </row>
     <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="30">
-        <v>2013</v>
       </c>
       <c r="C12" s="30">
         <v>35</v>
@@ -1263,10 +1311,10 @@
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -1293,11 +1341,11 @@
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="30">
-        <v>2018</v>
       </c>
       <c r="C14" s="30">
         <v>115</v>
@@ -1327,10 +1375,10 @@
       <c r="X14"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="28" t="s">
         <v>27</v>
@@ -1357,11 +1405,11 @@
       <c r="X15"/>
     </row>
     <row r="16" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="30">
-        <v>2019</v>
       </c>
       <c r="C16" s="30">
         <v>47</v>
@@ -1391,11 +1439,11 @@
       <c r="X16"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="31">
-        <v>2021</v>
       </c>
       <c r="C17" s="31">
         <v>16</v>
@@ -1425,11 +1473,11 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="30">
-        <v>2020</v>
       </c>
       <c r="C18" s="30">
         <v>204</v>
@@ -1459,11 +1507,11 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="39">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="31">
-        <v>2022</v>
       </c>
       <c r="C19" s="31">
         <v>8</v>
@@ -1493,10 +1541,10 @@
       <c r="X19"/>
     </row>
     <row r="20" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="29" t="s">
         <v>74</v>
@@ -1523,10 +1571,10 @@
       <c r="X20"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="28" t="s">
         <v>75</v>
@@ -1553,10 +1601,10 @@
       <c r="X21"/>
     </row>
     <row r="22" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="29" t="s">
         <v>76</v>
@@ -1583,11 +1631,11 @@
       <c r="X22"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="39">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="31">
-        <v>2017</v>
       </c>
       <c r="C23" s="31">
         <v>13</v>
@@ -1617,10 +1665,10 @@
       <c r="X23"/>
     </row>
     <row r="24" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="29" t="s">
         <v>78</v>
@@ -1647,10 +1695,10 @@
       <c r="X24"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="28" t="s">
         <v>79</v>
@@ -1677,10 +1725,10 @@
       <c r="X25"/>
     </row>
     <row r="26" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="29" t="s">
         <v>80</v>
@@ -1707,10 +1755,10 @@
       <c r="X26"/>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="28" t="s">
         <v>81</v>
@@ -1737,10 +1785,10 @@
       <c r="X27"/>
     </row>
     <row r="28" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="29" t="s">
         <v>82</v>
@@ -1767,11 +1815,11 @@
       <c r="X28"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="39">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" s="31">
-        <v>2019</v>
       </c>
       <c r="C29" s="31">
         <v>24</v>
@@ -1801,10 +1849,10 @@
       <c r="X29"/>
     </row>
     <row r="30" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="29" t="s">
         <v>84</v>
@@ -1831,10 +1879,10 @@
       <c r="X30"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="28" t="s">
         <v>85</v>
@@ -1861,10 +1909,10 @@
       <c r="X31"/>
     </row>
     <row r="32" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="29" t="s">
         <v>86</v>
@@ -1891,11 +1939,11 @@
       <c r="X32"/>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="39">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" s="31">
-        <v>2021</v>
       </c>
       <c r="C33" s="31">
         <v>76</v>
@@ -1925,10 +1973,10 @@
       <c r="X33"/>
     </row>
     <row r="34" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="29" t="s">
         <v>88</v>
@@ -1955,11 +2003,15 @@
       <c r="X34"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="39">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="31">
+        <v>48</v>
+      </c>
       <c r="D35" s="28" t="s">
         <v>89</v>
       </c>
@@ -1985,10 +2037,10 @@
       <c r="X35"/>
     </row>
     <row r="36" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="29" t="s">
         <v>90</v>
@@ -2015,11 +2067,15 @@
       <c r="X36"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="39">
+        <v>2020</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="C37" s="31">
+        <v>4</v>
+      </c>
       <c r="D37" s="28" t="s">
         <v>91</v>
       </c>
@@ -2045,11 +2101,15 @@
       <c r="X37"/>
     </row>
     <row r="38" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="30">
+        <v>18</v>
+      </c>
       <c r="D38" s="29" t="s">
         <v>92</v>
       </c>
@@ -2075,10 +2135,10 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="28" t="s">
         <v>93</v>
@@ -2105,16 +2165,32 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="30">
+        <v>543</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="39">
+        <v>2019</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="31">
+        <v>201</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
@@ -2137,16 +2213,32 @@
       <c r="X41"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="30">
+        <v>55</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="39">
+        <v>2015</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="31">
+        <v>63</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>104</v>
+      </c>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -2169,14 +2261,14 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="30"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="31"/>
       <c r="D45" s="4"/>
       <c r="E45"/>
@@ -2201,14 +2293,14 @@
       <c r="X45"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="30"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="31"/>
       <c r="D47" s="4"/>
       <c r="E47"/>
@@ -2233,14 +2325,14 @@
       <c r="X47"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="30"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="31"/>
       <c r="D49" s="4"/>
       <c r="E49"/>
@@ -2265,314 +2357,314 @@
       <c r="X49"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="30"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="31"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="30"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="31"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="30"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="31"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="30"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="31"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="30"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="31"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="31"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="30"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="31"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="30"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="31"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="30"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="31"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="30"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="31"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="30"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="31"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="30"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="31"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="30"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="31"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="30"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="31"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="30"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="31"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="31"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="30"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="31"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="30"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="31"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="31"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="30"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="31"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="30"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="30"/>
       <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="31"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="30"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="31"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="31"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="30"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="30"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="31"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="31"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="30"/>
       <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="31"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="31"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="30"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="30"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="31"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="31"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="30"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="31"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="4"/>
       <c r="C95" s="31"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="30"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="30"/>
       <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="31"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="31"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="30"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="4"/>
       <c r="C99" s="31"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="30"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="30"/>
       <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="31"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="31"/>
       <c r="D101" s="4"/>
     </row>
@@ -2605,9 +2697,13 @@
     <hyperlink ref="D18" r:id="rId25" xr:uid="{E4C780B3-83A5-4092-B981-8CD5F31B72A1}"/>
     <hyperlink ref="D22" r:id="rId26" xr:uid="{8B7BFFBB-7A4A-4127-9940-4693F7B39F89}"/>
     <hyperlink ref="D2" r:id="rId27" xr:uid="{C84C28CE-6690-4ED9-B0D6-4945D350CA64}"/>
+    <hyperlink ref="D40" r:id="rId28" xr:uid="{7A55C620-63F8-4077-98A7-33D1D52ED4B5}"/>
+    <hyperlink ref="D41" r:id="rId29" xr:uid="{AC93ACD3-1FFB-4B9B-A755-C021950B6B46}"/>
+    <hyperlink ref="D42" r:id="rId30" xr:uid="{FF718B2F-5238-46C0-ABD1-87581732D315}"/>
+    <hyperlink ref="D43" r:id="rId31" xr:uid="{684F6C14-18B1-470B-8055-0B519894856E}"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.31527777777777799" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000#interna&amp;1#</oddHeader>
   </headerFooter>

--- a/teoria/pesquisa-bib-dissert.xlsx
+++ b/teoria/pesquisa-bib-dissert.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="83">
   <si>
     <t xml:space="preserve">ANO</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">SURVEY</t>
   </si>
   <si>
-    <t xml:space="preserve">IDIOMA</t>
+    <t xml:space="preserve">PT-BR</t>
   </si>
   <si>
     <t xml:space="preserve">ABORDAGEM</t>
@@ -49,21 +49,54 @@
     <t xml:space="preserve">TARGET</t>
   </si>
   <si>
-    <t xml:space="preserve">MELHORIAS</t>
+    <t xml:space="preserve">OBS</t>
   </si>
   <si>
     <t xml:space="preserve">Speech Emotion Recognition using Supervised Deep Recurrent System for Mental Health Monitoring</t>
   </si>
   <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnn, rnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain fusion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Depression Recognition using Remote Photoplethysmography from Facial Videos</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Accurate Emotion Strength Assessment for Seen and Unseen Speech Based on Data-Driven Deep Learning</t>
   </si>
   <si>
+    <t xml:space="preserve">unsup sup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emo, str</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotional Speaker Identification using a Novel Capsule Nets Model</t>
   </si>
   <si>
+    <t xml:space="preserve">cnn, dnn</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEL Spectrogram</t>
   </si>
   <si>
@@ -73,46 +106,106 @@
     <t xml:space="preserve">Automated Sex Classification of Children's Voices and Changes in Differentiating Factors with Age</t>
   </si>
   <si>
+    <t xml:space="preserve">rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freqs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Language Independent Emotion Quantification using Non linear Modelling of Speech</t>
   </si>
   <si>
     <t xml:space="preserve">Voice Conversion Based on Cross-Domain Features Using Variational Auto Encoders</t>
   </si>
   <si>
+    <t xml:space="preserve">ae</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Fine-tuned Wav2vec 2.0/HuBERT Benchmark For Speech Emotion Recognition, Speaker Verification and Spoken Language Understanding</t>
   </si>
   <si>
+    <t xml:space="preserve">cnn, enc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Improving Automatic Emotion Recognition from speech using Rhythm and Temporal feature</t>
   </si>
   <si>
+    <t xml:space="preserve">dnn</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEEP: Uma arquitetura para reconhecer emoção com base no espectro sonoro da voz de falantes da língua portuguesa</t>
   </si>
   <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pros, croma, mfcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelos especialistas</t>
+  </si>
+  <si>
     <t xml:space="preserve">A Knowledge-Based Recommendation System That Includes Sentiment Analysis and Deep Learning</t>
   </si>
   <si>
+    <t xml:space="preserve">nível de estresse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotion intensity detection for social media data</t>
   </si>
   <si>
+    <t xml:space="preserve">tweets</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotion Detection and Analysis on Social Media</t>
   </si>
   <si>
     <t xml:space="preserve">The paradoxical role of emotional intensity in the perception of vocal affect</t>
   </si>
   <si>
+    <t xml:space="preserve">sobre intensidade</t>
+  </si>
+  <si>
     <t xml:space="preserve">Human Emotion Recognition: Review of Sensors and Methods </t>
   </si>
   <si>
+    <t xml:space="preserve">sensores para abordagens com dados fisiológicos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotion Intensity and its Control for Emotional Voice Conversion</t>
   </si>
   <si>
+    <t xml:space="preserve">mfcc, speech2text</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotional Intensity Level Analysis of Speech Emotional Intensity Estimation</t>
   </si>
   <si>
+    <t xml:space="preserve">svm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mfcc, spectral, pitch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recognition of Emotion with Intensity from Speech Signal Using 3D Transformed Feature and Deep Learning</t>
   </si>
   <si>
+    <t xml:space="preserve">mfcc,sfft, chroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mais de um modelo proposto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brazilian Portuguese emotional speech corpus analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svm, dnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utiliza modelos tradicionais</t>
   </si>
   <si>
     <t xml:space="preserve">END-TO-END SPEECH RECOGNITION APPLIED TO BRAZILIAN PORTUGUESE USING DEEP LEARNING</t>
@@ -185,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -224,6 +317,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -296,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +419,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -400,7 +504,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -417,7 +521,7 @@
   <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,10 +529,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="143.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="84.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.52"/>
@@ -467,333 +572,683 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="n">
+        <v>2022</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="n">
+        <v>2022</v>
+      </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="n">
+        <v>2022</v>
+      </c>
       <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="n">
+        <v>2022</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>2022</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
+      <c r="B19" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="n">
+        <v>2021</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="A21" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="n">
+        <v>2021</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>13</v>
@@ -809,7 +1264,7 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -822,8 +1277,8 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>33</v>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -837,7 +1292,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -850,8 +1305,8 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>35</v>
+      <c r="B27" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -865,7 +1320,7 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -880,8 +1335,8 @@
       <c r="A29" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>37</v>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>24</v>
@@ -897,7 +1352,7 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -910,8 +1365,8 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>39</v>
+      <c r="B31" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -925,7 +1380,7 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -940,8 +1395,8 @@
       <c r="A33" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>41</v>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>76</v>
@@ -957,7 +1412,7 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -972,8 +1427,8 @@
       <c r="A35" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>43</v>
+      <c r="B35" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>48</v>
@@ -989,7 +1444,7 @@
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1004,8 +1459,8 @@
       <c r="A37" s="5" t="n">
         <v>2020</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>45</v>
+      <c r="B37" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>4</v>
@@ -1023,7 +1478,7 @@
         <v>2021</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>18</v>
@@ -1038,8 +1493,8 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>47</v>
+      <c r="B39" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1055,7 +1510,7 @@
         <v>2012</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>543</v>
@@ -1068,12 +1523,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>49</v>
+      <c r="B41" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>201</v>
@@ -1086,12 +1541,12 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>50</v>
+      <c r="B42" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>55</v>
@@ -1104,12 +1559,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>51</v>
+      <c r="B43" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>63</v>
